--- a/RF.xlsx
+++ b/RF.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDY81HC\Documents\My test\2022\REFLASH_MPC3\CW23_CA_CD569ICA_BL03_RC05\05_CA_CD569ICA_BL03_RC05\FVIIICHANI-361_REFLASH_MPC3_Full\02_Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BDY81HC\Documents\My code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{905313FF-8DE3-4E80-8492-3DD142152B1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307B9CD6-DE06-4446-9D1E-B9A26EBAD3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="195" windowWidth="21600" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1421" uniqueCount="412">
   <si>
     <t>ID</t>
   </si>
@@ -195,27 +195,6 @@
 </t>
   </si>
   <si>
-    <t>1) -</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID F189 using physical addressing</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID F194 using physical addressing</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID F187 using physical addressing</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID F188 using physical addressing</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID 0200 using physical addressing</t>
-  </si>
-  <si>
-    <t>1) Send service 0x22 to the camera for the DID 0201 using physical addressing</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) RequestResponse(22f194, 62f19443443536394943415f424c30335f5634, Regexp)
 </t>
   </si>
@@ -232,24 +211,7 @@
 </t>
   </si>
   <si>
-    <t>1) Send service 0x22 to the camera for the DID F089 using physical addressing</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) RequestResponse(22f089, 62f0894857432e322e30.{2}, Regexp)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
-2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
-3) wait(5000)
-4) RequestResponse(22f1dd,62f1dd.*,Regexp)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
-2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
-3) wait(5000)
-4) RequestResponse(224255,624255.*,Regexp)
 </t>
   </si>
   <si>
@@ -271,13 +233,6 @@
 2) Unlock RBEOL
 3) Wait 5s
 4) Send service 0x22 to the camera for the DID F4259 using physical addressing
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
-2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
-3) wait(5000)
-4) RequestResponse(224259,624259.*,Regexp)
 </t>
   </si>
   <si>
@@ -1331,26 +1286,96 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) RequestResponse(220200, 620200.{3}1, Regexp)
+    <t>1.4 Latest SW to Dummy SW M5</t>
+  </si>
+  <si>
+    <t>1.4.1 Flash latest SW via UART</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F194 using physical addressing
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) RequestResponse(220201, 620201.{7}1, Regexp)
+    <t xml:space="preserve">1) -
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) RequestResponse(220200, 620200.{3}2, Regexp)
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F189 using physical addressing
 </t>
   </si>
   <si>
-    <t xml:space="preserve">1) RequestResponse(220201, 620201.{7}2, Regexp)
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F089 using physical addressing
 </t>
   </si>
   <si>
-    <t>1.4 Latest SW to Dummy SW M5</t>
-  </si>
-  <si>
-    <t>1.4.1 Flash latest SW via UART</t>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F187 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID F188 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID 0200 using physical addressing
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Send service 0x22 to the camera for the DID 0201 using physical addressing
+</t>
+  </si>
+  <si>
+    <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))_x000D_
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))_x000D_
+3) wait(5000)_x000D_
+4) RequestResponse(22f1dd,62f1dd.*,Regexp)</t>
+  </si>
+  <si>
+    <t>1) -_x000D_
+2) -_x000D_
+3) -_x000D_
+4) -</t>
+  </si>
+  <si>
+    <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))_x000D_
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))_x000D_
+3) wait(5000)_x000D_
+4) RequestResponse(224255,624255.*,Regexp)</t>
+  </si>
+  <si>
+    <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))_x000D_
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))_x000D_
+3) wait(5000)_x000D_
+4) RequestResponse(224259,624259.*,Regexp)</t>
+  </si>
+  <si>
+    <t>1) Access to RBEOL_x000D_
+2) Unlock RBEOL_x000D_
+3) Wait 5s_x000D_
+4) Send service 0x22 to the camera for the DID F1dd using physical addressing</t>
+  </si>
+  <si>
+    <t>1) Access to RBEOL_x000D_
+2) Unlock RBEOL_x000D_
+3) Wait 5s_x000D_
+4) Send service 0x22 to the camera for the DID F4255 using physical addressing</t>
+  </si>
+  <si>
+    <t>1) Access to RBEOL_x000D_
+2) Unlock RBEOL_x000D_
+3) Wait 5s_x000D_
+4) Send service 0x22 to the camera for the DID F4259 using physical addressing</t>
+  </si>
+  <si>
+    <t>1) envvar(EnvRBEOL(1;1000), EnvRBEOL(0;1000))
+2) envvar(Env_MPC3_EOL_unlock(1;1000), Env_MPC3_EOL_unlock(0;1000))
+3) wait(5000)
+4) RequestResponse(224255,624255.*,Regexp)</t>
+  </si>
+  <si>
+    <t>1) Access to RBEOL
+2) Unlock RBEOL
+3) Wait 5s
+4) Send service 0x22 to the camera for the DID 4255 using physical addressing</t>
   </si>
 </sst>
 </file>
@@ -1433,7 +1458,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1453,6 +1478,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1770,8 +1796,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:J190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1824,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -1842,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -1860,7 +1886,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -1878,7 +1904,7 @@
         <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -1896,31 +1922,31 @@
         <v>18</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1928,7 +1954,7 @@
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -1946,18 +1972,18 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G8" s="4" t="s">
@@ -1967,7 +1993,7 @@
         <v>14</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J8" s="4"/>
     </row>
@@ -1976,20 +2002,20 @@
         <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="D9" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1997,7 +2023,7 @@
         <v>14</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J9" s="4"/>
     </row>
@@ -2006,20 +2032,20 @@
         <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
@@ -2027,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J10" s="4"/>
     </row>
@@ -2036,19 +2062,19 @@
         <v>26</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>58</v>
+      <c r="D11" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>13</v>
@@ -2057,7 +2083,7 @@
         <v>14</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J11" s="4"/>
     </row>
@@ -2066,19 +2092,19 @@
         <v>43</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>55</v>
+      <c r="D12" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>13</v>
@@ -2087,7 +2113,7 @@
         <v>14</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J12" s="4"/>
     </row>
@@ -2096,19 +2122,19 @@
         <v>44</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>56</v>
+      <c r="D13" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>13</v>
@@ -2117,7 +2143,7 @@
         <v>14</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J13" s="4"/>
     </row>
@@ -2126,19 +2152,19 @@
         <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>67</v>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>13</v>
@@ -2147,7 +2173,7 @@
         <v>14</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J14" s="4"/>
     </row>
@@ -2156,7 +2182,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -2174,19 +2200,19 @@
         <v>32</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>46</v>
+      <c r="D16" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>13</v>
@@ -2195,28 +2221,28 @@
         <v>14</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
+      <c r="D17" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>13</v>
@@ -2225,16 +2251,16 @@
         <v>14</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2249,22 +2275,22 @@
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="5" t="s">
         <v>34</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>13</v>
@@ -2273,28 +2299,28 @@
         <v>14</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>59</v>
+      <c r="D20" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>13</v>
@@ -2303,28 +2329,28 @@
         <v>14</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="7" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>60</v>
+      <c r="D21" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>410</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>13</v>
@@ -2333,28 +2359,28 @@
         <v>14</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>64</v>
+      <c r="D22" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>13</v>
@@ -2363,16 +2389,16 @@
         <v>14</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -2387,40 +2413,40 @@
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -2435,21 +2461,21 @@
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>45</v>
       </c>
       <c r="G26" s="4" t="s">
@@ -2459,29 +2485,29 @@
         <v>14</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="4" t="s">
+      <c r="D27" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G27" s="4" t="s">
         <v>13</v>
       </c>
@@ -2489,29 +2515,29 @@
         <v>14</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G28" s="4" t="s">
         <v>13</v>
       </c>
@@ -2519,28 +2545,28 @@
         <v>14</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>58</v>
+      <c r="D29" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>13</v>
@@ -2549,28 +2575,28 @@
         <v>14</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J29" s="4"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>55</v>
+      <c r="D30" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>13</v>
@@ -2579,28 +2605,28 @@
         <v>14</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J30" s="4"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>56</v>
+      <c r="D31" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>13</v>
@@ -2609,28 +2635,28 @@
         <v>14</v>
       </c>
       <c r="I31" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J31" s="4"/>
     </row>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>67</v>
+      <c r="D32" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>13</v>
@@ -2639,16 +2665,16 @@
         <v>14</v>
       </c>
       <c r="I32" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J32" s="4"/>
     </row>
     <row r="33" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2663,22 +2689,22 @@
     </row>
     <row r="34" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>46</v>
+      <c r="D34" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>13</v>
@@ -2687,28 +2713,28 @@
         <v>14</v>
       </c>
       <c r="I34" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J34" s="4"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>46</v>
+      <c r="D35" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>396</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G35" s="4" t="s">
         <v>13</v>
@@ -2717,16 +2743,16 @@
         <v>14</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2741,22 +2767,22 @@
     </row>
     <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F37" s="4" t="s">
-        <v>91</v>
+      <c r="F37" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>13</v>
@@ -2765,28 +2791,28 @@
         <v>14</v>
       </c>
       <c r="I37" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J37" s="4"/>
     </row>
     <row r="38" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>59</v>
+      <c r="D38" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>403</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>13</v>
@@ -2795,28 +2821,28 @@
         <v>14</v>
       </c>
       <c r="I38" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J38" s="4"/>
     </row>
     <row r="39" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D39" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>60</v>
+      <c r="D39" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>405</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>13</v>
@@ -2825,28 +2851,28 @@
         <v>14</v>
       </c>
       <c r="I39" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J39" s="4"/>
     </row>
     <row r="40" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D40" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>64</v>
+      <c r="D40" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>406</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>13</v>
@@ -2855,16 +2881,16 @@
         <v>14</v>
       </c>
       <c r="I40" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J40" s="4"/>
     </row>
     <row r="41" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
@@ -2879,10 +2905,10 @@
     </row>
     <row r="42" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -2897,10 +2923,10 @@
     </row>
     <row r="43" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2915,42 +2941,42 @@
     </row>
     <row r="44" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E44" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H44" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I44" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J44" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -2965,10 +2991,10 @@
     </row>
     <row r="46" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>42</v>
@@ -2989,29 +3015,29 @@
         <v>14</v>
       </c>
       <c r="I46" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J46" s="4"/>
     </row>
     <row r="47" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E47" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F47" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G47" s="4" t="s">
         <v>13</v>
       </c>
@@ -3019,29 +3045,29 @@
         <v>14</v>
       </c>
       <c r="I47" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J47" s="4"/>
     </row>
     <row r="48" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D48" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F48" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G48" s="4" t="s">
         <v>13</v>
       </c>
@@ -3049,28 +3075,28 @@
         <v>14</v>
       </c>
       <c r="I48" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J48" s="4"/>
     </row>
     <row r="49" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>13</v>
@@ -3079,28 +3105,28 @@
         <v>14</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J49" s="4"/>
     </row>
     <row r="50" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>13</v>
@@ -3109,28 +3135,28 @@
         <v>14</v>
       </c>
       <c r="I50" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J50" s="4"/>
     </row>
     <row r="51" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>13</v>
@@ -3139,28 +3165,28 @@
         <v>14</v>
       </c>
       <c r="I51" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J51" s="4"/>
     </row>
     <row r="52" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G52" s="4" t="s">
         <v>13</v>
@@ -3169,16 +3195,16 @@
         <v>14</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J52" s="4"/>
     </row>
     <row r="53" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -3193,22 +3219,22 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>13</v>
@@ -3217,28 +3243,28 @@
         <v>14</v>
       </c>
       <c r="I54" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J54" s="4"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="C55" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>13</v>
@@ -3247,16 +3273,16 @@
         <v>14</v>
       </c>
       <c r="I55" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J55" s="4"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -3271,10 +3297,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>27</v>
@@ -3286,7 +3312,7 @@
         <v>34</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>13</v>
@@ -3295,28 +3321,28 @@
         <v>14</v>
       </c>
       <c r="I57" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J57" s="4"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>13</v>
@@ -3325,28 +3351,28 @@
         <v>14</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J58" s="4"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="C59" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>13</v>
@@ -3355,28 +3381,28 @@
         <v>14</v>
       </c>
       <c r="I59" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J59" s="4"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G60" s="4" t="s">
         <v>13</v>
@@ -3385,16 +3411,16 @@
         <v>14</v>
       </c>
       <c r="I60" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J60" s="4"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -3409,40 +3435,40 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E62" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G62" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I62" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
@@ -3457,10 +3483,10 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>42</v>
@@ -3481,29 +3507,29 @@
         <v>14</v>
       </c>
       <c r="I64" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J64" s="4"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C65" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E65" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F65" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G65" s="4" t="s">
         <v>13</v>
       </c>
@@ -3511,29 +3537,29 @@
         <v>14</v>
       </c>
       <c r="I65" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J65" s="4"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D66" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F66" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F66" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G66" s="4" t="s">
         <v>13</v>
       </c>
@@ -3541,28 +3567,28 @@
         <v>14</v>
       </c>
       <c r="I66" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J66" s="4"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>13</v>
@@ -3571,28 +3597,28 @@
         <v>14</v>
       </c>
       <c r="I67" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J67" s="4"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>13</v>
@@ -3601,28 +3627,28 @@
         <v>14</v>
       </c>
       <c r="I68" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J68" s="4"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>13</v>
@@ -3631,28 +3657,28 @@
         <v>14</v>
       </c>
       <c r="I69" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J69" s="4"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C70" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>13</v>
@@ -3661,16 +3687,16 @@
         <v>14</v>
       </c>
       <c r="I70" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J70" s="4"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -3685,22 +3711,22 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>13</v>
@@ -3709,28 +3735,28 @@
         <v>14</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J72" s="4"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G73" s="4" t="s">
         <v>13</v>
@@ -3739,16 +3765,16 @@
         <v>14</v>
       </c>
       <c r="I73" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J73" s="4"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -3763,10 +3789,10 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>27</v>
@@ -3778,7 +3804,7 @@
         <v>34</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>13</v>
@@ -3787,28 +3813,28 @@
         <v>14</v>
       </c>
       <c r="I75" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J75" s="4"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>13</v>
@@ -3817,28 +3843,28 @@
         <v>14</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J76" s="4"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>13</v>
@@ -3847,28 +3873,28 @@
         <v>14</v>
       </c>
       <c r="I77" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J77" s="4"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G78" s="4" t="s">
         <v>13</v>
@@ -3877,16 +3903,16 @@
         <v>14</v>
       </c>
       <c r="I78" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J78" s="4"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3901,40 +3927,40 @@
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E80" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3949,10 +3975,10 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>42</v>
@@ -3973,29 +3999,29 @@
         <v>14</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J82" s="4"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F83" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G83" s="4" t="s">
         <v>13</v>
       </c>
@@ -4003,29 +4029,29 @@
         <v>14</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J83" s="4"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D84" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G84" s="4" t="s">
         <v>13</v>
       </c>
@@ -4033,28 +4059,28 @@
         <v>14</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J84" s="4"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>13</v>
@@ -4063,28 +4089,28 @@
         <v>14</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J85" s="4"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>13</v>
@@ -4093,28 +4119,28 @@
         <v>14</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J86" s="4"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>13</v>
@@ -4123,28 +4149,28 @@
         <v>14</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J87" s="4"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>13</v>
@@ -4153,16 +4179,16 @@
         <v>14</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J88" s="4"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -4177,22 +4203,22 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>13</v>
@@ -4201,28 +4227,28 @@
         <v>14</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J90" s="4"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G91" s="4" t="s">
         <v>13</v>
@@ -4231,16 +4257,16 @@
         <v>14</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J91" s="4"/>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -4255,10 +4281,10 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>27</v>
@@ -4270,7 +4296,7 @@
         <v>34</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G93" s="4" t="s">
         <v>13</v>
@@ -4279,28 +4305,28 @@
         <v>14</v>
       </c>
       <c r="I93" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J93" s="4"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>13</v>
@@ -4309,28 +4335,28 @@
         <v>14</v>
       </c>
       <c r="I94" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J94" s="4"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G95" s="4" t="s">
         <v>13</v>
@@ -4339,28 +4365,28 @@
         <v>14</v>
       </c>
       <c r="I95" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J95" s="4"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>13</v>
@@ -4369,16 +4395,16 @@
         <v>14</v>
       </c>
       <c r="I96" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J96" s="4"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -4393,10 +4419,10 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -4411,10 +4437,10 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -4429,42 +4455,42 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E100" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H100" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I100" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J100" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -4479,10 +4505,10 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>42</v>
@@ -4503,29 +4529,29 @@
         <v>14</v>
       </c>
       <c r="I102" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J102" s="4"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E103" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F103" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F103" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G103" s="4" t="s">
         <v>13</v>
       </c>
@@ -4533,29 +4559,29 @@
         <v>14</v>
       </c>
       <c r="I103" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J103" s="4"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D104" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F104" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G104" s="4" t="s">
         <v>13</v>
       </c>
@@ -4563,28 +4589,28 @@
         <v>14</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J104" s="4"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>13</v>
@@ -4593,28 +4619,28 @@
         <v>14</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J105" s="4"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>13</v>
@@ -4623,28 +4649,28 @@
         <v>14</v>
       </c>
       <c r="I106" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J106" s="4"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>13</v>
@@ -4653,28 +4679,28 @@
         <v>14</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J107" s="4"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>13</v>
@@ -4683,16 +4709,16 @@
         <v>14</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J108" s="4"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -4707,22 +4733,22 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>13</v>
@@ -4731,28 +4757,28 @@
         <v>14</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J110" s="4"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G111" s="4" t="s">
         <v>13</v>
@@ -4761,16 +4787,16 @@
         <v>14</v>
       </c>
       <c r="I111" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J111" s="4"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -4785,10 +4811,10 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>27</v>
@@ -4800,7 +4826,7 @@
         <v>34</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G113" s="4" t="s">
         <v>13</v>
@@ -4809,28 +4835,28 @@
         <v>14</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J113" s="4"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>13</v>
@@ -4839,28 +4865,28 @@
         <v>14</v>
       </c>
       <c r="I114" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J114" s="4"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>13</v>
@@ -4869,28 +4895,28 @@
         <v>14</v>
       </c>
       <c r="I115" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J115" s="4"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G116" s="4" t="s">
         <v>13</v>
@@ -4899,16 +4925,16 @@
         <v>14</v>
       </c>
       <c r="I116" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J116" s="4"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
@@ -4923,40 +4949,40 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E118" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G118" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H118" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J118" s="6"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
@@ -4971,10 +4997,10 @@
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>42</v>
@@ -4995,29 +5021,29 @@
         <v>14</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J120" s="4"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E121" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F121" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G121" s="4" t="s">
         <v>13</v>
       </c>
@@ -5025,29 +5051,29 @@
         <v>14</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J121" s="4"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D122" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F122" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G122" s="4" t="s">
         <v>13</v>
       </c>
@@ -5055,28 +5081,28 @@
         <v>14</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J122" s="4"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G123" s="4" t="s">
         <v>13</v>
@@ -5085,28 +5111,28 @@
         <v>14</v>
       </c>
       <c r="I123" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J123" s="4"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G124" s="4" t="s">
         <v>13</v>
@@ -5115,28 +5141,28 @@
         <v>14</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J124" s="4"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G125" s="4" t="s">
         <v>13</v>
@@ -5145,28 +5171,28 @@
         <v>14</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J125" s="4"/>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="B126" s="4" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G126" s="4" t="s">
         <v>13</v>
@@ -5175,16 +5201,16 @@
         <v>14</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J126" s="4"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -5199,22 +5225,22 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G128" s="4" t="s">
         <v>13</v>
@@ -5223,28 +5249,28 @@
         <v>14</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J128" s="4"/>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G129" s="4" t="s">
         <v>13</v>
@@ -5253,16 +5279,16 @@
         <v>14</v>
       </c>
       <c r="I129" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J129" s="4"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -5277,10 +5303,10 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>27</v>
@@ -5292,7 +5318,7 @@
         <v>34</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G131" s="4" t="s">
         <v>13</v>
@@ -5301,28 +5327,28 @@
         <v>14</v>
       </c>
       <c r="I131" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J131" s="4"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G132" s="4" t="s">
         <v>13</v>
@@ -5331,28 +5357,28 @@
         <v>14</v>
       </c>
       <c r="I132" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J132" s="4"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G133" s="4" t="s">
         <v>13</v>
@@ -5361,28 +5387,28 @@
         <v>14</v>
       </c>
       <c r="I133" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J133" s="4"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G134" s="4" t="s">
         <v>13</v>
@@ -5391,16 +5417,16 @@
         <v>14</v>
       </c>
       <c r="I134" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J134" s="4"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -5415,10 +5441,10 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -5433,10 +5459,10 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -5451,42 +5477,42 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E138" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F138" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H138" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
@@ -5501,10 +5527,10 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>42</v>
@@ -5525,29 +5551,29 @@
         <v>14</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J140" s="4"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E141" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F141" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F141" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G141" s="4" t="s">
         <v>13</v>
       </c>
@@ -5555,29 +5581,29 @@
         <v>14</v>
       </c>
       <c r="I141" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J141" s="4"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D142" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F142" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E142" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G142" s="4" t="s">
         <v>13</v>
       </c>
@@ -5585,28 +5611,28 @@
         <v>14</v>
       </c>
       <c r="I142" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J142" s="4"/>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G143" s="4" t="s">
         <v>13</v>
@@ -5615,28 +5641,28 @@
         <v>14</v>
       </c>
       <c r="I143" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J143" s="4"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G144" s="4" t="s">
         <v>13</v>
@@ -5645,28 +5671,28 @@
         <v>14</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J144" s="4"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G145" s="4" t="s">
         <v>13</v>
@@ -5675,28 +5701,28 @@
         <v>14</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J145" s="4"/>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G146" s="4" t="s">
         <v>13</v>
@@ -5705,16 +5731,16 @@
         <v>14</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J146" s="4"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
@@ -5729,22 +5755,22 @@
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="G148" s="4" t="s">
         <v>13</v>
@@ -5753,28 +5779,28 @@
         <v>14</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J148" s="4"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G149" s="4" t="s">
         <v>13</v>
@@ -5783,16 +5809,16 @@
         <v>14</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J149" s="4"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3"/>
@@ -5807,10 +5833,10 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>27</v>
@@ -5822,7 +5848,7 @@
         <v>34</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G151" s="4" t="s">
         <v>13</v>
@@ -5831,28 +5857,28 @@
         <v>14</v>
       </c>
       <c r="I151" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J151" s="4"/>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G152" s="4" t="s">
         <v>13</v>
@@ -5861,28 +5887,28 @@
         <v>14</v>
       </c>
       <c r="I152" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J152" s="4"/>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>13</v>
@@ -5891,28 +5917,28 @@
         <v>14</v>
       </c>
       <c r="I153" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J153" s="4"/>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>13</v>
@@ -5921,16 +5947,16 @@
         <v>14</v>
       </c>
       <c r="I154" s="6" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J154" s="4"/>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
@@ -5945,40 +5971,40 @@
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E156" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H156" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J156" s="6"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
@@ -5993,10 +6019,10 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>42</v>
@@ -6017,29 +6043,29 @@
         <v>14</v>
       </c>
       <c r="I158" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J158" s="4"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C159" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E159" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F159" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F159" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G159" s="4" t="s">
         <v>13</v>
       </c>
@@ -6047,29 +6073,29 @@
         <v>14</v>
       </c>
       <c r="I159" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J159" s="4"/>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D160" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F160" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E160" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G160" s="4" t="s">
         <v>13</v>
       </c>
@@ -6077,28 +6103,28 @@
         <v>14</v>
       </c>
       <c r="I160" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J160" s="4"/>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C161" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G161" s="4" t="s">
         <v>13</v>
@@ -6107,28 +6133,28 @@
         <v>14</v>
       </c>
       <c r="I161" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J161" s="4"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="B162" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C162" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G162" s="4" t="s">
         <v>13</v>
@@ -6137,28 +6163,28 @@
         <v>14</v>
       </c>
       <c r="I162" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J162" s="4"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>13</v>
@@ -6167,28 +6193,28 @@
         <v>14</v>
       </c>
       <c r="I163" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J163" s="4"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="B164" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C164" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G164" s="4" t="s">
         <v>13</v>
@@ -6197,16 +6223,16 @@
         <v>14</v>
       </c>
       <c r="I164" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J164" s="4"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3"/>
@@ -6221,22 +6247,22 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C166" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>13</v>
@@ -6245,28 +6271,28 @@
         <v>14</v>
       </c>
       <c r="I166" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J166" s="4"/>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="G167" s="4" t="s">
         <v>13</v>
@@ -6275,16 +6301,16 @@
         <v>14</v>
       </c>
       <c r="I167" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J167" s="4"/>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -6299,10 +6325,10 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>27</v>
@@ -6314,7 +6340,7 @@
         <v>34</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G169" s="4" t="s">
         <v>13</v>
@@ -6323,28 +6349,28 @@
         <v>14</v>
       </c>
       <c r="I169" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J169" s="4"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C170" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G170" s="4" t="s">
         <v>13</v>
@@ -6353,28 +6379,28 @@
         <v>14</v>
       </c>
       <c r="I170" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J170" s="4"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C171" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G171" s="4" t="s">
         <v>13</v>
@@ -6383,28 +6409,28 @@
         <v>14</v>
       </c>
       <c r="I171" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J171" s="4"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>13</v>
@@ -6413,16 +6439,16 @@
         <v>14</v>
       </c>
       <c r="I172" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J172" s="4"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -6437,40 +6463,40 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="D174" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E174" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H174" s="4" t="s">
         <v>14</v>
       </c>
       <c r="I174" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J174" s="6"/>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
@@ -6485,10 +6511,10 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B176" s="4" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="C176" s="4" t="s">
         <v>42</v>
@@ -6509,29 +6535,29 @@
         <v>14</v>
       </c>
       <c r="I176" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J176" s="4"/>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="B177" s="4" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="C177" s="4" t="s">
         <v>38</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>48</v>
+        <v>395</v>
       </c>
       <c r="E177" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F177" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F177" s="4" t="s">
-        <v>53</v>
-      </c>
       <c r="G177" s="4" t="s">
         <v>13</v>
       </c>
@@ -6539,29 +6565,29 @@
         <v>14</v>
       </c>
       <c r="I177" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J177" s="4"/>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B178" s="4" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D178" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F178" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E178" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F178" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="G178" s="4" t="s">
         <v>13</v>
       </c>
@@ -6569,28 +6595,28 @@
         <v>14</v>
       </c>
       <c r="I178" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J178" s="4"/>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="B179" s="4" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>57</v>
+        <v>398</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>13</v>
@@ -6599,28 +6625,28 @@
         <v>14</v>
       </c>
       <c r="I179" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J179" s="4"/>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B180" s="4" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="C180" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>49</v>
+        <v>399</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="G180" s="4" t="s">
         <v>13</v>
@@ -6629,28 +6655,28 @@
         <v>14</v>
       </c>
       <c r="I180" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J180" s="4"/>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="B181" s="4" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C181" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>13</v>
@@ -6659,28 +6685,28 @@
         <v>14</v>
       </c>
       <c r="I181" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J181" s="4"/>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="B182" s="4" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="C182" s="4" t="s">
         <v>41</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="G182" s="4" t="s">
         <v>13</v>
@@ -6689,16 +6715,16 @@
         <v>14</v>
       </c>
       <c r="I182" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J182" s="4"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -6713,22 +6739,22 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B184" s="4" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C184" s="4" t="s">
         <v>29</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>51</v>
+        <v>401</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>13</v>
@@ -6737,28 +6763,28 @@
         <v>14</v>
       </c>
       <c r="I184" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J184" s="4"/>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="B185" s="4" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C185" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>52</v>
+        <v>402</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>13</v>
@@ -6767,16 +6793,16 @@
         <v>14</v>
       </c>
       <c r="I185" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J185" s="4"/>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -6791,10 +6817,10 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="B187" s="4" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C187" s="4" t="s">
         <v>27</v>
@@ -6806,7 +6832,7 @@
         <v>34</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G187" s="4" t="s">
         <v>13</v>
@@ -6815,28 +6841,28 @@
         <v>14</v>
       </c>
       <c r="I187" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J187" s="4"/>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C188" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>59</v>
+        <v>403</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>13</v>
@@ -6845,28 +6871,28 @@
         <v>14</v>
       </c>
       <c r="I188" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J188" s="4"/>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>60</v>
+        <v>405</v>
       </c>
       <c r="G189" s="4" t="s">
         <v>13</v>
@@ -6875,28 +6901,28 @@
         <v>14</v>
       </c>
       <c r="I189" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J189" s="4"/>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="B190" s="4" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C190" s="4" t="s">
         <v>37</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E190" s="4" t="s">
-        <v>34</v>
+        <v>404</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>64</v>
+        <v>406</v>
       </c>
       <c r="G190" s="4" t="s">
         <v>13</v>
@@ -6905,11 +6931,12 @@
         <v>14</v>
       </c>
       <c r="I190" s="6" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="J190" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6918,8 +6945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:A40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A189" sqref="A1:J190"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:J190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
